--- a/public/uploads/Anexo-2-Comercial_Nedetel.xlsx
+++ b/public/uploads/Anexo-2-Comercial_Nedetel.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CR\NED\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
+    <workbookView xWindow="8655" yWindow="3150" windowWidth="21240" windowHeight="12270" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Anexo Comercial" sheetId="1" r:id="rId1"/>
@@ -58,9 +63,6 @@
   </si>
   <si>
     <t>TIPO DE NEGOCIO:</t>
-  </si>
-  <si>
-    <t>${SER_NOMBRE}</t>
   </si>
   <si>
     <t>CARGO:</t>
@@ -500,11 +502,14 @@
   <si>
     <t>${NODO_CIU_NOMBRE}: ${NODO_UBI_DIRECCION}</t>
   </si>
+  <si>
+    <t>Servicio de internet</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="d&quot; de &quot;mmm&quot; de &quot;yy"/>
     <numFmt numFmtId="165" formatCode="[$$-300A]\ #,##0.00"/>
@@ -597,7 +602,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -931,6 +936,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -938,7 +958,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1150,6 +1170,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1171,7 +1194,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1262,9 +1288,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1279,6 +1302,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1327,7 +1353,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1362,7 +1388,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1573,8 +1599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:IW71"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="J29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S44" sqref="S44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25:C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1603,50 +1629,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:21" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="71" t="s">
+      <c r="A2" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
-      <c r="F2" s="71"/>
-      <c r="G2" s="71"/>
-      <c r="H2" s="71"/>
-      <c r="I2" s="71"/>
-      <c r="J2" s="71"/>
-      <c r="K2" s="71"/>
-      <c r="L2" s="71"/>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="72"/>
+      <c r="L2" s="72"/>
+      <c r="M2" s="72"/>
+      <c r="N2" s="72"/>
+      <c r="O2" s="72"/>
+      <c r="P2" s="72"/>
+      <c r="Q2" s="72"/>
+      <c r="R2" s="72"/>
+      <c r="S2" s="72"/>
       <c r="T2" s="2"/>
       <c r="U2" s="3"/>
     </row>
     <row r="3" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="72"/>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="72"/>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="72"/>
-      <c r="R3" s="72"/>
-      <c r="S3" s="72"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="4"/>
@@ -1737,27 +1763,27 @@
       <c r="R7" s="4"/>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="73" t="s">
+      <c r="A9" s="74" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
-      <c r="J9" s="73"/>
-      <c r="K9" s="73"/>
-      <c r="L9" s="73"/>
-      <c r="M9" s="73"/>
-      <c r="N9" s="73"/>
-      <c r="O9" s="73"/>
-      <c r="P9" s="73"/>
-      <c r="Q9" s="73"/>
-      <c r="R9" s="73"/>
-      <c r="S9" s="73"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="74"/>
+      <c r="D9" s="74"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="74"/>
+      <c r="H9" s="74"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
+      <c r="M9" s="74"/>
+      <c r="N9" s="74"/>
+      <c r="O9" s="74"/>
+      <c r="P9" s="74"/>
+      <c r="Q9" s="74"/>
+      <c r="R9" s="74"/>
+      <c r="S9" s="74"/>
       <c r="T9" s="2"/>
       <c r="U9" s="3"/>
     </row>
@@ -1786,11 +1812,11 @@
       <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="74"/>
-      <c r="C11" s="74"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
       <c r="D11" s="11"/>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
@@ -1804,22 +1830,22 @@
       <c r="Q11" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="R11" s="75"/>
-      <c r="S11" s="75"/>
-      <c r="T11" s="75"/>
-      <c r="U11" s="75"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
     </row>
     <row r="12" spans="1:21" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="76"/>
+      <c r="C12" s="77"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="73"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -1833,24 +1859,24 @@
       <c r="Q12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="R12" s="77" t="s">
+      <c r="R12" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="S12" s="77"/>
-      <c r="T12" s="77"/>
-      <c r="U12" s="77"/>
+      <c r="S12" s="78"/>
+      <c r="T12" s="78"/>
+      <c r="U12" s="78"/>
     </row>
     <row r="13" spans="1:21" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="78" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="78"/>
+      <c r="B13" s="79" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="80"/>
       <c r="D13" s="11"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -1862,10 +1888,10 @@
       <c r="O13" s="4"/>
       <c r="P13" s="4"/>
       <c r="Q13" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="R13" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="R13" s="15" t="s">
-        <v>15</v>
       </c>
       <c r="S13" s="15"/>
       <c r="T13" s="16"/>
@@ -1873,15 +1899,15 @@
     </row>
     <row r="14" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="79"/>
+      <c r="C14" s="81"/>
       <c r="D14" s="11"/>
-      <c r="E14" s="72"/>
-      <c r="F14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1893,10 +1919,10 @@
       <c r="O14" s="4"/>
       <c r="P14" s="4"/>
       <c r="Q14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="R14" s="18" t="s">
         <v>18</v>
-      </c>
-      <c r="R14" s="18" t="s">
-        <v>19</v>
       </c>
       <c r="S14" s="19"/>
       <c r="T14" s="19"/>
@@ -1904,15 +1930,15 @@
     </row>
     <row r="15" spans="1:21" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="76" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="76"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="11"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
       <c r="G15" s="21"/>
       <c r="H15" s="21"/>
       <c r="I15" s="21"/>
@@ -1924,26 +1950,26 @@
       <c r="O15" s="21"/>
       <c r="P15" s="21"/>
       <c r="Q15" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="R15" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="R15" s="81" t="s">
-        <v>23</v>
-      </c>
-      <c r="S15" s="81"/>
+      <c r="S15" s="83"/>
       <c r="T15" s="16"/>
       <c r="U15" s="17"/>
     </row>
     <row r="16" spans="1:21" ht="53.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="82" t="s">
-        <v>25</v>
-      </c>
-      <c r="C16" s="82"/>
+      <c r="C16" s="84"/>
       <c r="D16" s="11"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
+      <c r="E16" s="85"/>
+      <c r="F16" s="85"/>
       <c r="G16" s="22"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
@@ -1955,26 +1981,26 @@
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
       <c r="Q16" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="R16" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="R16" s="77" t="s">
-        <v>27</v>
-      </c>
-      <c r="S16" s="77"/>
-      <c r="T16" s="77"/>
-      <c r="U16" s="77"/>
+      <c r="S16" s="78"/>
+      <c r="T16" s="78"/>
+      <c r="U16" s="78"/>
     </row>
     <row r="17" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>28</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>29</v>
       </c>
       <c r="C17" s="24"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
@@ -1986,10 +2012,10 @@
       <c r="O17" s="4"/>
       <c r="P17" s="4"/>
       <c r="Q17" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R17" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="S17" s="15"/>
       <c r="T17" s="16"/>
@@ -1997,15 +2023,15 @@
     </row>
     <row r="18" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="26" t="s">
         <v>31</v>
-      </c>
-      <c r="B18" s="26" t="s">
-        <v>32</v>
       </c>
       <c r="C18" s="24"/>
       <c r="D18" s="11"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
@@ -2017,10 +2043,10 @@
       <c r="O18" s="4"/>
       <c r="P18" s="4"/>
       <c r="Q18" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R18" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S18" s="19"/>
       <c r="T18" s="19"/>
@@ -2028,15 +2054,15 @@
     </row>
     <row r="19" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="84" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="84"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="86" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="86"/>
       <c r="D19" s="11"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
@@ -2048,26 +2074,26 @@
       <c r="O19" s="21"/>
       <c r="P19" s="21"/>
       <c r="Q19" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="R19" s="81" t="s">
-        <v>35</v>
-      </c>
-      <c r="S19" s="81"/>
+        <v>21</v>
+      </c>
+      <c r="R19" s="83" t="s">
+        <v>34</v>
+      </c>
+      <c r="S19" s="83"/>
       <c r="T19" s="16"/>
       <c r="U19" s="17"/>
     </row>
     <row r="20" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="26" t="s">
         <v>36</v>
-      </c>
-      <c r="B20" s="26" t="s">
-        <v>37</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="11"/>
-      <c r="E20" s="72"/>
-      <c r="F20" s="72"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
@@ -2079,26 +2105,26 @@
       <c r="O20" s="4"/>
       <c r="P20" s="4"/>
       <c r="Q20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="R20" s="78" t="s">
         <v>38</v>
       </c>
-      <c r="R20" s="77" t="s">
-        <v>39</v>
-      </c>
-      <c r="S20" s="77"/>
-      <c r="T20" s="77"/>
-      <c r="U20" s="77"/>
+      <c r="S20" s="78"/>
+      <c r="T20" s="78"/>
+      <c r="U20" s="78"/>
     </row>
     <row r="21" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="85" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="85"/>
+        <v>21</v>
+      </c>
+      <c r="B21" s="87" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="87"/>
       <c r="D21" s="11"/>
-      <c r="E21" s="72"/>
-      <c r="F21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="73"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
@@ -2110,10 +2136,10 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="R21" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="S21" s="15"/>
       <c r="T21" s="16"/>
@@ -2121,10 +2147,10 @@
     </row>
     <row r="22" spans="1:21" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="86"/>
-      <c r="C22" s="86"/>
+        <v>41</v>
+      </c>
+      <c r="B22" s="88"/>
+      <c r="C22" s="88"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
@@ -2139,10 +2165,10 @@
       <c r="O22" s="4"/>
       <c r="P22" s="4"/>
       <c r="Q22" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="R22" s="18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S22" s="19"/>
       <c r="T22" s="19"/>
@@ -2150,12 +2176,12 @@
     </row>
     <row r="23" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" s="89" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="87" t="s">
-        <v>45</v>
-      </c>
-      <c r="C23" s="87"/>
+      <c r="C23" s="89"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
@@ -2170,23 +2196,23 @@
       <c r="O23" s="4"/>
       <c r="P23" s="4"/>
       <c r="Q23" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="R23" s="81" t="s">
-        <v>46</v>
-      </c>
-      <c r="S23" s="81"/>
+        <v>21</v>
+      </c>
+      <c r="R23" s="83" t="s">
+        <v>45</v>
+      </c>
+      <c r="S23" s="83"/>
       <c r="T23" s="16"/>
       <c r="U23" s="17"/>
     </row>
     <row r="24" spans="1:21" ht="42" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="88" t="s">
-        <v>48</v>
-      </c>
-      <c r="C24" s="88"/>
+        <v>46</v>
+      </c>
+      <c r="B24" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="C24" s="90"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
       <c r="F24" s="4"/>
@@ -2201,23 +2227,23 @@
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="R24" s="89" t="s">
-        <v>25</v>
-      </c>
-      <c r="S24" s="89"/>
-      <c r="T24" s="89"/>
-      <c r="U24" s="89"/>
+        <v>48</v>
+      </c>
+      <c r="R24" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="91"/>
+      <c r="T24" s="91"/>
+      <c r="U24" s="91"/>
     </row>
     <row r="25" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="90" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="88" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="88"/>
+      <c r="C25" s="90"/>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
       <c r="F25" s="4"/>
@@ -2232,23 +2258,23 @@
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R25" s="92" t="s">
         <v>52</v>
       </c>
-      <c r="R25" s="90" t="s">
-        <v>53</v>
-      </c>
-      <c r="S25" s="90"/>
-      <c r="T25" s="90"/>
-      <c r="U25" s="90"/>
+      <c r="S25" s="92"/>
+      <c r="T25" s="92"/>
+      <c r="U25" s="92"/>
     </row>
     <row r="26" spans="1:21" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="32" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="93" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="91" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="91"/>
+      <c r="C26" s="93"/>
       <c r="D26" s="33"/>
       <c r="E26" s="33"/>
       <c r="F26" s="4"/>
@@ -2263,14 +2289,14 @@
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="R26" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="R26" s="92" t="s">
-        <v>57</v>
-      </c>
-      <c r="S26" s="92"/>
-      <c r="T26" s="92"/>
-      <c r="U26" s="92"/>
+      <c r="S26" s="94"/>
+      <c r="T26" s="94"/>
+      <c r="U26" s="94"/>
     </row>
     <row r="27" spans="1:21" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="34"/>
@@ -2293,29 +2319,29 @@
       <c r="R27" s="35"/>
     </row>
     <row r="28" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="93"/>
-      <c r="C28" s="93"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="93"/>
-      <c r="F28" s="93"/>
-      <c r="G28" s="93"/>
-      <c r="H28" s="93"/>
-      <c r="I28" s="93"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="93"/>
-      <c r="L28" s="93"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="93"/>
-      <c r="O28" s="93"/>
-      <c r="P28" s="93"/>
-      <c r="Q28" s="93"/>
-      <c r="R28" s="93"/>
-      <c r="S28" s="93"/>
-      <c r="T28" s="93"/>
-      <c r="U28" s="93"/>
+      <c r="A28" s="95" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="95"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="95"/>
+      <c r="Q28" s="95"/>
+      <c r="R28" s="95"/>
+      <c r="S28" s="95"/>
+      <c r="T28" s="95"/>
+      <c r="U28" s="95"/>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="36"/>
@@ -2347,16 +2373,16 @@
       <c r="F30" s="36"/>
       <c r="G30" s="36"/>
       <c r="H30" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="I30" s="37" t="s">
         <v>59</v>
-      </c>
-      <c r="I30" s="37" t="s">
-        <v>60</v>
       </c>
       <c r="J30" s="36"/>
       <c r="K30" s="36"/>
       <c r="L30" s="36"/>
       <c r="O30" s="37" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P30" s="36"/>
       <c r="Q30" s="36"/>
@@ -2372,16 +2398,16 @@
       <c r="F31" s="36"/>
       <c r="G31" s="36"/>
       <c r="H31" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" s="37" t="s">
         <v>62</v>
-      </c>
-      <c r="I31" s="37" t="s">
-        <v>63</v>
       </c>
       <c r="J31" s="36"/>
       <c r="K31" s="36"/>
       <c r="L31" s="36"/>
       <c r="O31" s="37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P31" s="36"/>
       <c r="Q31" s="36"/>
@@ -2402,7 +2428,7 @@
       <c r="K32" s="36"/>
       <c r="L32" s="36"/>
       <c r="O32" s="37" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="P32" s="36"/>
       <c r="Q32" s="36"/>
@@ -2423,7 +2449,7 @@
       <c r="K33" s="36"/>
       <c r="L33" s="36"/>
       <c r="O33" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P33" s="36"/>
       <c r="Q33" s="36"/>
@@ -2444,7 +2470,7 @@
       <c r="K34" s="36"/>
       <c r="L34" s="36"/>
       <c r="O34" s="37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="P34" s="36"/>
       <c r="Q34" s="36"/>
@@ -2465,7 +2491,7 @@
       <c r="K35" s="36"/>
       <c r="L35" s="36"/>
       <c r="O35" s="37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P35" s="36"/>
       <c r="Q35" s="36"/>
@@ -2486,7 +2512,7 @@
       <c r="K36" s="36"/>
       <c r="L36" s="36"/>
       <c r="O36" s="37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="P36" s="36"/>
       <c r="Q36" s="36"/>
@@ -2507,7 +2533,7 @@
       <c r="K37" s="36"/>
       <c r="L37" s="36"/>
       <c r="O37" s="37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="P37" s="36"/>
       <c r="Q37" s="36"/>
@@ -2528,7 +2554,7 @@
       <c r="K38" s="36"/>
       <c r="L38" s="36"/>
       <c r="O38" s="37" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="P38" s="36"/>
       <c r="Q38" s="36"/>
@@ -2549,7 +2575,7 @@
       <c r="K39" s="36"/>
       <c r="L39" s="36"/>
       <c r="O39" s="37" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P39" s="36"/>
       <c r="Q39" s="36"/>
@@ -2570,7 +2596,7 @@
       <c r="K40" s="36"/>
       <c r="L40" s="36"/>
       <c r="O40" s="37" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="P40" s="36"/>
       <c r="Q40" s="36"/>
@@ -2619,126 +2645,126 @@
     </row>
     <row r="43" spans="1:21" ht="66" customHeight="1" collapsed="1" x14ac:dyDescent="0.2">
       <c r="A43" s="38" t="s">
+        <v>73</v>
+      </c>
+      <c r="B43" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="B43" s="38" t="s">
+      <c r="C43" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="D43" s="39" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="39" t="s">
+      <c r="E43" s="39" t="s">
         <v>77</v>
       </c>
-      <c r="E43" s="39" t="s">
+      <c r="F43" s="39" t="s">
         <v>78</v>
       </c>
-      <c r="F43" s="39" t="s">
+      <c r="G43" s="39" t="s">
         <v>79</v>
       </c>
-      <c r="G43" s="39" t="s">
+      <c r="H43" s="39" t="s">
         <v>80</v>
       </c>
-      <c r="H43" s="39" t="s">
+      <c r="I43" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="I43" s="39" t="s">
+      <c r="J43" s="39" t="s">
         <v>82</v>
       </c>
-      <c r="J43" s="39" t="s">
+      <c r="K43" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="K43" s="39" t="s">
+      <c r="L43" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="L43" s="39" t="s">
+      <c r="M43" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="M43" s="39" t="s">
+      <c r="N43" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="N43" s="39" t="s">
+      <c r="O43" s="39" t="s">
         <v>87</v>
       </c>
-      <c r="O43" s="39" t="s">
+      <c r="P43" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="P43" s="39" t="s">
+      <c r="Q43" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="Q43" s="39" t="s">
+      <c r="R43" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="R43" s="39" t="s">
+      <c r="S43" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="S43" s="39" t="s">
+      <c r="T43" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="T43" s="39" t="s">
+      <c r="U43" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="U43" s="39" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="44" spans="1:21" s="1" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="40" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C44" s="41" t="s">
+        <v>94</v>
+      </c>
+      <c r="D44" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="D44" s="42" t="s">
+      <c r="E44" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="F44" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="F44" s="109" t="s">
+      <c r="G44" s="71" t="s">
+        <v>97</v>
+      </c>
+      <c r="H44" s="40" t="s">
+        <v>61</v>
+      </c>
+      <c r="I44" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J44" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="G44" s="109" t="s">
-        <v>98</v>
-      </c>
-      <c r="H44" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="I44" s="40" t="s">
+      <c r="K44" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="L44" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="M44" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="N44" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="O44" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J44" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="K44" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="L44" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="M44" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="N44" s="40" t="s">
+      <c r="P44" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q44" s="44" t="s">
+        <v>128</v>
+      </c>
+      <c r="R44" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="O44" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P44" s="40" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q44" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="R44" s="45" t="s">
-        <v>104</v>
-      </c>
       <c r="S44" s="45" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="T44" s="8"/>
       <c r="U44" s="8"/>
@@ -2814,37 +2840,37 @@
     </row>
     <row r="48" spans="1:21" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="Q48" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="R48" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="S48" s="45" t="s">
         <v>105</v>
-      </c>
-      <c r="R48" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="S48" s="45" t="s">
-        <v>106</v>
       </c>
       <c r="T48" s="31"/>
     </row>
     <row r="49" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="Q49" s="50" t="s">
+        <v>106</v>
+      </c>
+      <c r="R49" s="45" t="s">
+        <v>129</v>
+      </c>
+      <c r="S49" s="45" t="s">
         <v>107</v>
-      </c>
-      <c r="R49" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="S49" s="45" t="s">
-        <v>108</v>
       </c>
       <c r="T49" s="31"/>
     </row>
     <row r="50" spans="1:20" ht="38.25" x14ac:dyDescent="0.2">
       <c r="Q50" s="50" t="s">
+        <v>108</v>
+      </c>
+      <c r="R50" s="45" t="s">
+        <v>127</v>
+      </c>
+      <c r="S50" s="45" t="s">
         <v>109</v>
-      </c>
-      <c r="R50" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="S50" s="45" t="s">
-        <v>110</v>
       </c>
       <c r="T50" s="31"/>
     </row>
@@ -2868,25 +2894,25 @@
       <c r="Q51" s="51"/>
     </row>
     <row r="52" spans="1:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="93" t="s">
-        <v>111</v>
-      </c>
-      <c r="B52" s="93"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
-      <c r="G52" s="93"/>
-      <c r="H52" s="93"/>
-      <c r="I52" s="93"/>
-      <c r="J52" s="93"/>
-      <c r="K52" s="93"/>
-      <c r="L52" s="93"/>
-      <c r="M52" s="93"/>
-      <c r="N52" s="93"/>
-      <c r="O52" s="93"/>
-      <c r="P52" s="93"/>
-      <c r="Q52" s="93"/>
+      <c r="A52" s="95" t="s">
+        <v>110</v>
+      </c>
+      <c r="B52" s="95"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="95"/>
+      <c r="I52" s="95"/>
+      <c r="J52" s="95"/>
+      <c r="K52" s="95"/>
+      <c r="L52" s="95"/>
+      <c r="M52" s="95"/>
+      <c r="N52" s="95"/>
+      <c r="O52" s="95"/>
+      <c r="P52" s="95"/>
+      <c r="Q52" s="95"/>
       <c r="R52" s="53"/>
       <c r="S52" s="53"/>
     </row>
@@ -2894,48 +2920,48 @@
       <c r="A53" s="54"/>
     </row>
     <row r="54" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="94" t="s">
+      <c r="A54" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="B54" s="96"/>
+      <c r="C54" s="96" t="s">
         <v>112</v>
       </c>
-      <c r="B54" s="94"/>
-      <c r="C54" s="94" t="s">
+      <c r="D54" s="96"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="55" t="s">
         <v>113</v>
-      </c>
-      <c r="D54" s="94"/>
-      <c r="E54" s="94"/>
-      <c r="F54" s="55" t="s">
-        <v>114</v>
       </c>
       <c r="G54" s="56"/>
       <c r="H54" s="57" t="s">
+        <v>114</v>
+      </c>
+      <c r="I54" s="57"/>
+      <c r="J54" s="97"/>
+      <c r="K54" s="97"/>
+      <c r="L54" s="98" t="s">
         <v>115</v>
       </c>
-      <c r="I54" s="57"/>
-      <c r="J54" s="95"/>
-      <c r="K54" s="95"/>
-      <c r="L54" s="96" t="s">
+      <c r="M54" s="98"/>
+      <c r="N54" s="98"/>
+      <c r="O54" s="98"/>
+      <c r="P54" s="98"/>
+      <c r="Q54" s="98"/>
+    </row>
+    <row r="55" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="99"/>
+      <c r="B55" s="99"/>
+      <c r="C55" s="100" t="s">
         <v>116</v>
       </c>
-      <c r="M54" s="96"/>
-      <c r="N54" s="96"/>
-      <c r="O54" s="96"/>
-      <c r="P54" s="96"/>
-      <c r="Q54" s="96"/>
-    </row>
-    <row r="55" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="97"/>
-      <c r="B55" s="97"/>
-      <c r="C55" s="98" t="s">
-        <v>117</v>
-      </c>
-      <c r="D55" s="98"/>
-      <c r="E55" s="98"/>
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
       <c r="F55" s="58"/>
-      <c r="G55" s="99"/>
-      <c r="H55" s="99"/>
-      <c r="I55" s="99"/>
-      <c r="J55" s="100"/>
-      <c r="K55" s="100"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="101"/>
+      <c r="I55" s="101"/>
+      <c r="J55" s="102"/>
+      <c r="K55" s="102"/>
       <c r="L55" s="59"/>
       <c r="M55" s="59"/>
       <c r="N55" s="59"/>
@@ -2951,8 +2977,8 @@
       <c r="E56" s="62"/>
       <c r="F56" s="44"/>
       <c r="G56" s="63"/>
-      <c r="J56" s="101"/>
-      <c r="K56" s="101"/>
+      <c r="J56" s="103"/>
+      <c r="K56" s="103"/>
       <c r="L56" s="65"/>
       <c r="M56" s="65"/>
       <c r="N56" s="65"/>
@@ -2961,17 +2987,17 @@
       <c r="Q56" s="62"/>
     </row>
     <row r="57" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="102"/>
-      <c r="B57" s="102"/>
-      <c r="C57" s="103"/>
-      <c r="D57" s="103"/>
-      <c r="E57" s="103"/>
+      <c r="A57" s="104"/>
+      <c r="B57" s="104"/>
+      <c r="C57" s="105"/>
+      <c r="D57" s="105"/>
+      <c r="E57" s="105"/>
       <c r="F57" s="66"/>
       <c r="G57" s="67"/>
       <c r="H57" s="26"/>
       <c r="I57" s="62"/>
-      <c r="J57" s="101"/>
-      <c r="K57" s="101"/>
+      <c r="J57" s="103"/>
+      <c r="K57" s="103"/>
       <c r="L57" s="65"/>
       <c r="M57" s="65"/>
       <c r="N57" s="65"/>
@@ -2980,17 +3006,17 @@
       <c r="Q57" s="62"/>
     </row>
     <row r="58" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="102"/>
-      <c r="B58" s="102"/>
-      <c r="C58" s="102"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="102"/>
+      <c r="A58" s="104"/>
+      <c r="B58" s="104"/>
+      <c r="C58" s="104"/>
+      <c r="D58" s="104"/>
+      <c r="E58" s="104"/>
       <c r="F58" s="66"/>
       <c r="G58" s="67"/>
       <c r="H58" s="26"/>
       <c r="I58" s="62"/>
-      <c r="J58" s="101"/>
-      <c r="K58" s="101"/>
+      <c r="J58" s="103"/>
+      <c r="K58" s="103"/>
       <c r="L58" s="65"/>
       <c r="M58" s="65"/>
       <c r="N58" s="65"/>
@@ -2999,17 +3025,17 @@
       <c r="Q58" s="62"/>
     </row>
     <row r="59" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="102"/>
-      <c r="B59" s="102"/>
-      <c r="C59" s="102"/>
-      <c r="D59" s="102"/>
-      <c r="E59" s="102"/>
+      <c r="A59" s="104"/>
+      <c r="B59" s="104"/>
+      <c r="C59" s="104"/>
+      <c r="D59" s="104"/>
+      <c r="E59" s="104"/>
       <c r="F59" s="64"/>
       <c r="G59" s="67"/>
       <c r="H59" s="26"/>
       <c r="I59" s="62"/>
-      <c r="J59" s="101"/>
-      <c r="K59" s="101"/>
+      <c r="J59" s="103"/>
+      <c r="K59" s="103"/>
       <c r="L59" s="68"/>
       <c r="M59" s="68"/>
       <c r="N59" s="68"/>
@@ -3018,17 +3044,17 @@
       <c r="Q59" s="62"/>
     </row>
     <row r="60" spans="1:20" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="102"/>
-      <c r="B60" s="102"/>
-      <c r="C60" s="102"/>
-      <c r="D60" s="102"/>
-      <c r="E60" s="102"/>
+      <c r="A60" s="104"/>
+      <c r="B60" s="104"/>
+      <c r="C60" s="104"/>
+      <c r="D60" s="104"/>
+      <c r="E60" s="104"/>
       <c r="F60" s="64"/>
       <c r="G60" s="67"/>
       <c r="H60" s="26"/>
       <c r="I60" s="62"/>
-      <c r="J60" s="101"/>
-      <c r="K60" s="101"/>
+      <c r="J60" s="103"/>
+      <c r="K60" s="103"/>
       <c r="L60" s="68"/>
       <c r="M60" s="68"/>
       <c r="N60" s="68"/>
@@ -3037,36 +3063,36 @@
       <c r="Q60" s="62"/>
     </row>
     <row r="66" spans="1:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="104" t="s">
-        <v>127</v>
-      </c>
-      <c r="B66" s="104"/>
+      <c r="A66" s="106" t="s">
+        <v>126</v>
+      </c>
+      <c r="B66" s="106"/>
       <c r="C66" s="69"/>
       <c r="D66" s="69"/>
       <c r="E66" s="69"/>
-      <c r="I66" s="104" t="s">
-        <v>118</v>
-      </c>
-      <c r="J66" s="104"/>
-      <c r="K66" s="104"/>
-      <c r="L66" s="104"/>
-      <c r="M66" s="104"/>
+      <c r="I66" s="106" t="s">
+        <v>117</v>
+      </c>
+      <c r="J66" s="106"/>
+      <c r="K66" s="106"/>
+      <c r="L66" s="106"/>
+      <c r="M66" s="106"/>
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
     </row>
     <row r="67" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="104" t="s">
-        <v>126</v>
-      </c>
-      <c r="B67" s="104"/>
-      <c r="I67" s="104" t="s">
-        <v>119</v>
-      </c>
-      <c r="J67" s="104"/>
-      <c r="K67" s="104"/>
-      <c r="L67" s="104"/>
-      <c r="M67" s="104"/>
+      <c r="A67" s="106" t="s">
+        <v>125</v>
+      </c>
+      <c r="B67" s="106"/>
+      <c r="I67" s="106" t="s">
+        <v>118</v>
+      </c>
+      <c r="J67" s="106"/>
+      <c r="K67" s="106"/>
+      <c r="L67" s="106"/>
+      <c r="M67" s="106"/>
       <c r="N67" s="11"/>
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
@@ -3078,65 +3104,65 @@
       <c r="V67" s="11"/>
     </row>
     <row r="68" spans="1:22" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="104" t="s">
-        <v>124</v>
-      </c>
-      <c r="B68" s="104"/>
+      <c r="A68" s="106" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" s="106"/>
       <c r="C68" s="70"/>
       <c r="D68" s="70"/>
       <c r="E68" s="70"/>
-      <c r="I68" s="104" t="s">
+      <c r="I68" s="106" t="s">
         <v>9</v>
       </c>
-      <c r="J68" s="104"/>
-      <c r="K68" s="104"/>
-      <c r="L68" s="104"/>
-      <c r="M68" s="104"/>
+      <c r="J68" s="106"/>
+      <c r="K68" s="106"/>
+      <c r="L68" s="106"/>
+      <c r="M68" s="106"/>
       <c r="N68" s="11"/>
-      <c r="O68" s="105"/>
-      <c r="P68" s="105"/>
-      <c r="Q68" s="105"/>
-      <c r="R68" s="105"/>
-      <c r="S68" s="105"/>
-      <c r="T68" s="105"/>
-      <c r="U68" s="105"/>
+      <c r="O68" s="107"/>
+      <c r="P68" s="107"/>
+      <c r="Q68" s="107"/>
+      <c r="R68" s="107"/>
+      <c r="S68" s="107"/>
+      <c r="T68" s="107"/>
+      <c r="U68" s="107"/>
       <c r="V68" s="11"/>
     </row>
     <row r="69" spans="1:22" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="104" t="s">
-        <v>125</v>
-      </c>
-      <c r="B69" s="104"/>
+      <c r="A69" s="106" t="s">
+        <v>124</v>
+      </c>
+      <c r="B69" s="106"/>
       <c r="C69" s="70"/>
       <c r="D69" s="70"/>
       <c r="E69" s="70"/>
-      <c r="I69" s="106" t="s">
-        <v>120</v>
-      </c>
-      <c r="J69" s="107"/>
-      <c r="K69" s="107"/>
-      <c r="L69" s="107"/>
-      <c r="M69" s="107"/>
-      <c r="O69" s="108"/>
-      <c r="P69" s="108"/>
-      <c r="Q69" s="108"/>
-      <c r="R69" s="108"/>
-      <c r="S69" s="108"/>
-      <c r="T69" s="108"/>
-      <c r="U69" s="108"/>
+      <c r="I69" s="108" t="s">
+        <v>119</v>
+      </c>
+      <c r="J69" s="109"/>
+      <c r="K69" s="109"/>
+      <c r="L69" s="109"/>
+      <c r="M69" s="109"/>
+      <c r="O69" s="110"/>
+      <c r="P69" s="110"/>
+      <c r="Q69" s="110"/>
+      <c r="R69" s="110"/>
+      <c r="S69" s="110"/>
+      <c r="T69" s="110"/>
+      <c r="U69" s="110"/>
     </row>
     <row r="71" spans="1:22" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="54" t="s">
+        <v>120</v>
+      </c>
+      <c r="B71" s="85" t="s">
         <v>121</v>
       </c>
-      <c r="B71" s="83" t="s">
+      <c r="C71" s="85"/>
+      <c r="D71" s="85" t="s">
         <v>122</v>
       </c>
-      <c r="C71" s="83"/>
-      <c r="D71" s="83" t="s">
-        <v>123</v>
-      </c>
-      <c r="E71" s="83"/>
+      <c r="E71" s="85"/>
     </row>
   </sheetData>
   <mergeCells count="72">
